--- a/tool/excel_exporter/doc/scene.xlsx
+++ b/tool/excel_exporter/doc/scene.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="24026"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA59A6AB-74F1-47BB-9193-9B3A6728A289}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8702FF2-68F4-453F-BAD4-2FA3BE9010DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-28920" yWindow="-120" windowWidth="28110" windowHeight="16440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -481,7 +481,7 @@
   <dimension ref="A1:D8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D11" sqref="D11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
@@ -557,7 +557,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A6">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="B6" t="s">
         <v>10</v>
@@ -571,7 +571,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A7">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B7" t="s">
         <v>15</v>
@@ -585,7 +585,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.15">
       <c r="A8">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B8" t="s">
         <v>17</v>
